--- a/rapports/Scrum Update.xlsx
+++ b/rapports/Scrum Update.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18255" windowHeight="18195" tabRatio="500" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18255" windowHeight="18195" tabRatio="827" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -582,6 +582,10 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+      <color rgb="FF558ED5"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -634,7 +638,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -884,11 +887,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="244016256"/>
-        <c:axId val="244017792"/>
+        <c:axId val="178708864"/>
+        <c:axId val="178710400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="244016256"/>
+        <c:axId val="178708864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -926,7 +929,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244017792"/>
+        <c:crossAx val="178710400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -934,7 +937,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="244017792"/>
+        <c:axId val="178710400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -987,7 +990,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1022,7 +1024,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244016256"/>
+        <c:crossAx val="178708864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1035,7 +1037,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1321,11 +1322,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="242787840"/>
-        <c:axId val="242789376"/>
+        <c:axId val="179864320"/>
+        <c:axId val="179865856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="242787840"/>
+        <c:axId val="179864320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1363,7 +1364,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242789376"/>
+        <c:crossAx val="179865856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1371,7 +1372,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242789376"/>
+        <c:axId val="179865856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1459,7 +1460,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="242787840"/>
+        <c:crossAx val="179864320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1528,7 +1529,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1800" b="1" strike="noStrike" spc="-1">
+              <a:rPr lang="fr-FR" sz="1800" b="1" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1544,6 +1545,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1757,11 +1759,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="152368640"/>
-        <c:axId val="152370176"/>
+        <c:axId val="179696768"/>
+        <c:axId val="179698304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152368640"/>
+        <c:axId val="179696768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,7 +1801,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152370176"/>
+        <c:crossAx val="179698304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1807,7 +1809,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152370176"/>
+        <c:axId val="179698304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1844,7 +1846,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000" b="1" strike="noStrike" spc="-1">
+                  <a:rPr lang="fr-FR" sz="1000" b="1" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1860,6 +1862,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1894,7 +1897,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152368640"/>
+        <c:crossAx val="179696768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1907,6 +1910,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2191,11 +2195,11 @@
         </c:hiLowLines>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="152848256"/>
-        <c:axId val="152849792"/>
+        <c:axId val="180229632"/>
+        <c:axId val="180231168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152848256"/>
+        <c:axId val="180229632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2233,7 +2237,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152849792"/>
+        <c:crossAx val="180231168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2241,7 +2245,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152849792"/>
+        <c:axId val="180231168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2328,7 +2332,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152848256"/>
+        <c:crossAx val="180229632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6702,7 +6706,7 @@
     <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6730,7 +6734,7 @@
   <dimension ref="A1:AMK49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
